--- a/Doc/scrum-meeting.xlsx
+++ b/Doc/scrum-meeting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\研一\敏捷软件开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E14E45-20EA-4F69-A537-46A4448DF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74608DB-42F0-497E-9E75-B04F27AAED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <t>Team member</t>
   </si>
@@ -121,6 +121,70 @@
   </si>
   <si>
     <t>后端大框架搭建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加日志框架和redis框架</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入swagger自动生成接口文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成spring backlog，spring backlog，scrum-meeting文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续文档修订</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学校虚拟机运行程序框架，配置环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成jenkins前后端自动化部署</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页样式设计，撰写博客的前端组件实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客视图的前端实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档上传接口完成，日志以及缓存实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端对接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端方法调用实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端方法调用的测试，样式调整</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端持续集成部署，后端采用docker上传harbor镜像仓库，前端采用nginx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonarQube配置实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring backlog，spring backlog，scrum-meeting文档随完成进度完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助前端样式调整</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -280,6 +344,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,15 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +1013,7 @@
   </sheetPr>
   <dimension ref="B6:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:H9"/>
     </sheetView>
   </sheetViews>
@@ -962,15 +1026,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -980,178 +1044,180 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="B9:B11"/>
@@ -1168,8 +1234,6 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1249,7 @@
   </sheetPr>
   <dimension ref="B6:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
@@ -1198,15 +1262,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1216,178 +1280,180 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="B6:H6"/>
@@ -1404,8 +1470,6 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1420,8 +1484,8 @@
   </sheetPr>
   <dimension ref="B6:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1433,15 +1497,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1451,154 +1515,180 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="B6:H6"/>
@@ -1615,12 +1705,11 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1631,8 +1720,8 @@
   </sheetPr>
   <dimension ref="B6:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1644,15 +1733,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1662,154 +1751,180 @@
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="B6:H6"/>
@@ -1826,8 +1941,6 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
